--- a/Tesis/Resultados/Convergencia.xlsx
+++ b/Tesis/Resultados/Convergencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eozeroy/Python/Aplicaciones/Tesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eozeroy/Python/Aplicaciones/Tesis/Tesis/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D1C924-8D7D-6D41-919F-51502E364A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70333887-F3B3-814F-99DA-32912BD34C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="2220" windowWidth="28040" windowHeight="17440" xr2:uid="{CB5C705C-16D2-A242-B105-0D06A25E632E}"/>
   </bookViews>
@@ -1393,7 +1393,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1757,6 +1757,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I12">
+    <sortCondition ref="A1:A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
